--- a/leaked.xlsx
+++ b/leaked.xlsx
@@ -599,8 +599,8 @@
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/leaked.xlsx
+++ b/leaked.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -77,9 +77,6 @@
     <t>Schneider</t>
   </si>
   <si>
-    <t>Frakfurt</t>
-  </si>
-  <si>
     <t>Meyer</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>1924-12-13T00:00:00.000+01:00</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -634,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
         <v>485</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -666,24 +666,24 @@
         <v>8708</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>961</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>57842</v>
@@ -698,24 +698,24 @@
         <v>5239</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>34535</v>
@@ -730,7 +730,7 @@
         <v>6325</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -738,16 +738,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>19276</v>
@@ -762,7 +762,7 @@
         <v>6844</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -770,16 +770,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>49896</v>
@@ -794,24 +794,24 @@
         <v>4529</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>637</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>76980</v>
@@ -826,12 +826,12 @@
         <v>1787</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -840,10 +840,10 @@
         <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>29406</v>
@@ -858,12 +858,12 @@
         <v>3740</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -872,7 +872,7 @@
         <v>948</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -890,12 +890,12 @@
         <v>7792</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -904,10 +904,10 @@
         <v>978</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>70123</v>
@@ -922,7 +922,7 @@
         <v>377</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -930,13 +930,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>767</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -954,7 +954,7 @@
         <v>9461</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -962,16 +962,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>4910</v>
@@ -986,24 +986,24 @@
         <v>7642</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>887</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>97884</v>
@@ -1018,24 +1018,24 @@
         <v>8109</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>485</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <v>97659</v>
@@ -1050,24 +1050,24 @@
         <v>9368</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>428</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>27882</v>
@@ -1082,7 +1082,7 @@
         <v>1511</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1090,16 +1090,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>307</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>45358</v>
@@ -1114,7 +1114,7 @@
         <v>8359</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1122,16 +1122,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>39683</v>
@@ -1146,24 +1146,24 @@
         <v>3273</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <v>64997</v>
@@ -1178,7 +1178,7 @@
         <v>3680</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>379</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1210,12 +1210,12 @@
         <v>6382</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1224,10 +1224,10 @@
         <v>301</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F20">
         <v>42610</v>
@@ -1242,24 +1242,24 @@
         <v>4116</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
       </c>
       <c r="C21">
         <v>585</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <v>99919</v>
@@ -1274,7 +1274,7 @@
         <v>7622</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
